--- a/Business/Finance/Sponsorship/Deans/Budget 2018-2019.xlsx
+++ b/Business/Finance/Sponsorship/Deans/Budget 2018-2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Operating Expenses</t>
   </si>
@@ -117,15 +117,9 @@
     <t>Snacks during Outreach Events</t>
   </si>
   <si>
-    <t>General Meeting Pizza and Soda</t>
-  </si>
-  <si>
     <t>SpaceVision Networking Event (San Diego, CA)</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
     <t>Airplane Ticket and General Travel</t>
   </si>
   <si>
@@ -135,10 +129,10 @@
     <t>Admission to the SEDS Conference</t>
   </si>
   <si>
-    <t>(Assuming 8 Members in Attendence)</t>
-  </si>
-  <si>
     <t>Total Fund Raising Income as of 9/27/2018</t>
+  </si>
+  <si>
+    <t>(16 Members in Attendence)</t>
   </si>
 </sst>
 </file>
@@ -800,11 +794,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -872,7 +866,7 @@
     </row>
     <row r="9" spans="1:3" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="38">
@@ -940,7 +934,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="36">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C17" s="25"/>
     </row>
@@ -949,7 +943,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="36">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C18" s="25"/>
     </row>
@@ -958,7 +952,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="36">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="C19" s="25"/>
     </row>
@@ -967,7 +961,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="36">
-        <v>400.00099999999998</v>
+        <v>500</v>
       </c>
       <c r="C20" s="25"/>
     </row>
@@ -978,7 +972,7 @@
       <c r="B21" s="34"/>
       <c r="C21" s="38">
         <f>SUM(B12:B20)</f>
-        <v>8800.0010000000002</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="7" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,56 +1081,56 @@
       </c>
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="38">
+        <f>SUM(B34:B34)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+    </row>
+    <row r="37" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="33">
-        <v>250</v>
-      </c>
-      <c r="C35" s="25"/>
-    </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="38">
-        <f>SUM(B34:B35)</f>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="26"/>
     </row>
     <row r="38" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B38" s="35"/>
       <c r="C38" s="26"/>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="26"/>
-    </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="33">
+        <v>5000</v>
+      </c>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="33">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="B40" s="33">
-        <v>2500</v>
-      </c>
-      <c r="C40" s="25"/>
-    </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="B41" s="33">
         <v>750</v>
@@ -1144,52 +1138,34 @@
       <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="33">
-        <v>750</v>
-      </c>
-      <c r="C42" s="25"/>
+      <c r="A42" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="38">
+        <f>SUM(B39:B41)</f>
+        <v>6750</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="33">
-        <v>600</v>
-      </c>
+      <c r="A43" s="21"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="25"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="38">
-        <f>SUM(B40:B43)</f>
-        <v>4600</v>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="42">
+        <f>SUM(C21,C31,C35,C42)-C9</f>
+        <v>18450</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="25"/>
-    </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="42">
-        <f>SUM(C21,C31,C36,C44)-C9</f>
-        <v>14650.001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="8"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Business/Finance/Sponsorship/Deans/Budget 2018-2019.xlsx
+++ b/Business/Finance/Sponsorship/Deans/Budget 2018-2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Operating Expenses</t>
   </si>
@@ -133,6 +133,27 @@
   </si>
   <si>
     <t>(16 Members in Attendence)</t>
+  </si>
+  <si>
+    <t>Expected Contributions</t>
+  </si>
+  <si>
+    <t>Outside Sponsorship</t>
+  </si>
+  <si>
+    <t>ME Department</t>
+  </si>
+  <si>
+    <t>EE/CE Department</t>
+  </si>
+  <si>
+    <t>CEPS Deans</t>
+  </si>
+  <si>
+    <t>Parents Foundation</t>
+  </si>
+  <si>
+    <t>Total of Expenses and Contributions</t>
   </si>
 </sst>
 </file>
@@ -144,7 +165,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -220,6 +241,18 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -297,7 +330,7 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -417,6 +450,8 @@
     <xf numFmtId="44" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -794,11 +829,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1167,6 +1202,62 @@
       <c r="B45" s="3"/>
       <c r="C45" s="8"/>
     </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="44">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="44">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="44">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="44">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="44"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="44">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
